--- a/excel files/Escape_case_study_fructose.xlsx
+++ b/excel files/Escape_case_study_fructose.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B20B6C6-A2EE-4000-8918-DE127F01D1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389DD954-C700-4EFF-8339-F20A940E33EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="683" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="683" activeTab="2" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="input_output_intervals" sheetId="1" r:id="rId1"/>
@@ -1463,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AE4236-3006-4E07-A9E2-DEE610CD0DBE}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1889,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8D8FB7-0FD2-42C3-9D82-0A6D9AE32488}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/excel files/Escape_case_study_fructose.xlsx
+++ b/excel files/Escape_case_study_fructose.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389DD954-C700-4EFF-8339-F20A940E33EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37A7B2F-9B5D-4780-8F93-1065B5BC23A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="683" activeTab="2" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
+    <workbookView xWindow="25776" yWindow="2520" windowWidth="18096" windowHeight="8964" tabRatio="683" activeTab="2" xr2:uid="{6BCA81A1-C24E-4458-B51D-F7D92A8A2CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="input_output_intervals" sheetId="1" r:id="rId1"/>
@@ -1165,7 +1165,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1467,7 +1467,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
@@ -1607,7 +1607,7 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
@@ -1890,10 +1890,10 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
@@ -2063,7 +2063,7 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
@@ -2383,7 +2383,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
